--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -1,29 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71FDC9C3-F58E-483D-B83C-4D3637E416E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F4F7F-02E4-407E-AFD7-3693D219BC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21336" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_tipology" sheetId="1" r:id="rId1"/>
+    <sheet name="horizon" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tikhon Stulov</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ABFE9955-5D08-46D3-B0C3-368046151893}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{68CE2F63-5B83-40D3-A337-07939A36922B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>встречаетмся слово, оба слова не обязательно подряд</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tikhon Stulov</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5FE88DB9-9799-4A56-AB3E-A8ABB70F42D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>сантиметры</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B57E1F83-C7FD-4EEB-9342-8BF847CA54FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>сантиметры</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{99298DB4-6143-4DA0-825D-793F601C59D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>0 или пусто</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{EE1E31AC-ABB2-49FC-AACC-24C9975E42F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>зачистка профиля или стенка или бровка</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>Наименование</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Скребок</t>
   </si>
@@ -49,9 +154,6 @@
     <t>Белемнит</t>
   </si>
   <si>
-    <t>НЕ НАДО</t>
-  </si>
-  <si>
     <t>Отбойник</t>
   </si>
   <si>
@@ -154,9 +256,6 @@
     <t xml:space="preserve"> Нуклеус | Нуклеуса</t>
   </si>
   <si>
-    <t xml:space="preserve"> кость | бивень | мамонта | кости | ребро | ребра | Раковины | раковина | подвеска</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Скребло | Скребловидное | Скобель</t>
   </si>
   <si>
@@ -226,9 +325,6 @@
     <t xml:space="preserve"> обоженный | со следами огня</t>
   </si>
   <si>
-    <t xml:space="preserve"> Нож | Ножа | Ножевидное орудие</t>
-  </si>
-  <si>
     <t xml:space="preserve"> отщеп с ретушью | отщеп со следами обрабтки | отщеп следами обработки | отщеп со следами ретуши | Отщеп со ретуши</t>
   </si>
   <si>
@@ -259,14 +355,74 @@
     <t xml:space="preserve"> кусок кремня | кусков кремня | куска кремня | кусочек кремня | кусочек окремнел. | кремн. Куска | кусок кремнистого | кр.кусок</t>
   </si>
   <si>
-    <t xml:space="preserve"> встречаетмся слово, оба слова не обязательно подряд</t>
+    <t>Ножевидное орудие</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нож | Ножа</t>
+  </si>
+  <si>
+    <t>Бивень</t>
+  </si>
+  <si>
+    <t>Подвеска</t>
+  </si>
+  <si>
+    <t>Раковина</t>
+  </si>
+  <si>
+    <t>Раковины | раковина</t>
+  </si>
+  <si>
+    <t>подвеска</t>
+  </si>
+  <si>
+    <t>бивень</t>
+  </si>
+  <si>
+    <t>бивень мамонта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кость |  кости | ребро | ребра</t>
+  </si>
+  <si>
+    <t>3а</t>
+  </si>
+  <si>
+    <t>3б</t>
+  </si>
+  <si>
+    <t>4а</t>
+  </si>
+  <si>
+    <t>4б</t>
+  </si>
+  <si>
+    <t>2а</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>variants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +572,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -759,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -767,6 +938,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,340 +1293,568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="65.5546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="65.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="174.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="65.5546875" style="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="174.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="65.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
+      <c r="B44" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F4F7F-02E4-407E-AFD7-3693D219BC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F834B-DD48-4BD1-8521-7485D9C1ADF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Tikhon Stulov</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ABFE9955-5D08-46D3-B0C3-368046151893}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{68CE2F63-5B83-40D3-A337-07939A36922B}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
     <author>Tikhon Stulov</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5FE88DB9-9799-4A56-AB3E-A8ABB70F42D0}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B57E1F83-C7FD-4EEB-9342-8BF847CA54FD}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{99298DB4-6143-4DA0-825D-793F601C59D4}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{EE1E31AC-ABB2-49FC-AACC-24C9975E42F8}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Скребок</t>
   </si>
@@ -361,9 +361,6 @@
     <t xml:space="preserve"> Нож | Ножа</t>
   </si>
   <si>
-    <t>Бивень</t>
-  </si>
-  <si>
     <t>Подвеска</t>
   </si>
   <si>
@@ -416,6 +413,12 @@
   </si>
   <si>
     <t>variants</t>
+  </si>
+  <si>
+    <t>пусто</t>
+  </si>
+  <si>
+    <t>Кость</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +770,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -930,7 +939,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -939,6 +948,14 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1296,7 +1313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A44" sqref="A42:A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1307,10 +1326,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,34 +1646,34 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1666,9 +1685,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1678,13 +1699,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,7 +1809,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1799,7 +1820,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1810,7 +1831,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -1821,7 +1842,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -1832,7 +1853,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -1843,13 +1864,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
         <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="5">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -5,18 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F834B-DD48-4BD1-8521-7485D9C1ADF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7BE0FD-6003-4B76-8277-48ABF3FA239E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_tipology" sheetId="1" r:id="rId1"/>
     <sheet name="horizon" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -415,10 +423,10 @@
     <t>variants</t>
   </si>
   <si>
-    <t>пусто</t>
-  </si>
-  <si>
     <t>Кость</t>
+  </si>
+  <si>
+    <t>void</t>
   </si>
 </sst>
 </file>
@@ -592,7 +600,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,12 +778,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -948,14 +950,14 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1313,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A44" sqref="A42:A44"/>
     </sheetView>
   </sheetViews>
@@ -1652,11 +1654,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1687,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,14 +1875,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7">
         <v>40</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>100</v>
       </c>
     </row>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -5,26 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7BE0FD-6003-4B76-8277-48ABF3FA239E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96297AA-A896-4B8E-9C51-599E968898DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_tipology" sheetId="1" r:id="rId1"/>
     <sheet name="horizon" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -136,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Скребок</t>
   </si>
@@ -258,9 +250,6 @@
     <t xml:space="preserve"> отщеп сланца с ретушью</t>
   </si>
   <si>
-    <t xml:space="preserve"> скребковой ретушью | скребок | скребковидное</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Нуклеус | Нуклеуса</t>
   </si>
   <si>
@@ -427,6 +416,57 @@
   </si>
   <si>
     <t>void</t>
+  </si>
+  <si>
+    <t>Кость с обработкой</t>
+  </si>
+  <si>
+    <t>Осколок</t>
+  </si>
+  <si>
+    <t>Чешуйка</t>
+  </si>
+  <si>
+    <t>Галька</t>
+  </si>
+  <si>
+    <t>Охра</t>
+  </si>
+  <si>
+    <t>Бусина</t>
+  </si>
+  <si>
+    <t>Кварц</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> скребковой ретушью | скребок | скребковидное/скребка</t>
+  </si>
+  <si>
+    <t>шифер</t>
+  </si>
+  <si>
+    <t>кость обработки | кости обработки | коть обработкой | кости обработкой</t>
+  </si>
+  <si>
+    <t>осколок | осколка | осколки</t>
+  </si>
+  <si>
+    <t>чешуйка | чешуек | чешуйки</t>
+  </si>
+  <si>
+    <t>Галька | гальки | галек</t>
+  </si>
+  <si>
+    <t>Охра | охры | охристость</t>
+  </si>
+  <si>
+    <t>Бусина | бусины</t>
+  </si>
+  <si>
+    <t>кусок кварца | куска кварца | кусков кварца | кусок кварцита | куска кварцита | кусков кварцита</t>
+  </si>
+  <si>
+    <t>шифер | шифера</t>
   </si>
 </sst>
 </file>
@@ -600,7 +640,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +818,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -941,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -958,6 +1004,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1313,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A44" sqref="A42:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1328,10 +1380,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,15 +1399,15 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
+      <c r="B4" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,15 +1495,15 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1591,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1599,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1607,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +1615,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1631,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,7 +1647,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1655,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1663,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,7 +1679,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1635,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,39 +1695,103 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>79</v>
+    </row>
+    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1701,13 +1817,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1927,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1822,7 +1938,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1833,7 +1949,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -1844,7 +1960,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -1855,7 +1971,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -1866,7 +1982,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1877,7 +1993,7 @@
     </row>
     <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7">
         <v>40</v>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96297AA-A896-4B8E-9C51-599E968898DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48963E2-7ABE-44FF-8C3A-37BEF97A9BF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_tipology" sheetId="1" r:id="rId1"/>
     <sheet name="horizon" sheetId="2" r:id="rId2"/>
+    <sheet name="locate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
   <si>
     <t>Скребок</t>
   </si>
@@ -467,6 +468,18 @@
   </si>
   <si>
     <t>шифер | шифера</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>ыъэюя</t>
+  </si>
+  <si>
+    <t>абвгдежзиклмнопрстуфхцчшщъыьэю</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2007,4 +2020,62 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0EA6EA-280C-4CEF-BEDB-D148F27B6676}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48963E2-7ABE-44FF-8C3A-37BEF97A9BF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD3FAD-79FB-4D2F-9CA0-1DD8CEA75F66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table_tipology" sheetId="1" r:id="rId1"/>
-    <sheet name="horizon" sheetId="2" r:id="rId2"/>
-    <sheet name="locate" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId1"/>
+    <sheet name="table_tipology" sheetId="1" r:id="rId2"/>
+    <sheet name="horizon" sheetId="2" r:id="rId3"/>
+    <sheet name="locate" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>Скребок</t>
   </si>
@@ -476,10 +477,52 @@
     <t>letters</t>
   </si>
   <si>
-    <t>ыъэюя</t>
-  </si>
-  <si>
     <t>абвгдежзиклмнопрстуфхцчшщъыьэю</t>
+  </si>
+  <si>
+    <t>ыьэюя</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>quad_size</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>сторона квадрата в сантиметрах</t>
+  </si>
+  <si>
+    <t>word_only</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>поиск паттернов типологии по целым словам (y/n)</t>
+  </si>
+  <si>
+    <t>step_XY</t>
+  </si>
+  <si>
+    <t>шаг координатной сетки для координат X и Y</t>
+  </si>
+  <si>
+    <t>step_Z</t>
+  </si>
+  <si>
+    <t>шаг координатной сетки для координаты Z</t>
+  </si>
+  <si>
+    <t>neg_Z</t>
+  </si>
+  <si>
+    <t>использовать для оси Z отрицательные координаты</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1420,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5A430-4559-424A-BE44-2D91DC40780D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2022,12 +2149,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0EA6EA-280C-4CEF-BEDB-D148F27B6676}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD3FAD-79FB-4D2F-9CA0-1DD8CEA75F66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6BC984-DD59-48E4-82B0-B3271D809B82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>Скребок</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>использовать для оси Z отрицательные координаты</t>
+  </si>
+  <si>
+    <t>split_coord</t>
+  </si>
+  <si>
+    <t>разделить координаты по трем отдельным столбцам</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5A430-4559-424A-BE44-2D91DC40780D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,6 +1502,17 @@
       </c>
       <c r="C6" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6BC984-DD59-48E4-82B0-B3271D809B82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0CEFB8-0929-4A12-BA7E-023ED528E481}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>Скребок</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Кость</t>
   </si>
   <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>Кость с обработкой</t>
   </si>
   <si>
@@ -529,6 +526,15 @@
   </si>
   <si>
     <t>разделить координаты по трем отдельным столбцам</t>
+  </si>
+  <si>
+    <t>split_symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,.</t>
+  </si>
+  <si>
+    <t>символы, которые обрезаются в начале и конце слов в описании при сравнении с паттернами типологии</t>
   </si>
 </sst>
 </file>
@@ -678,15 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -701,8 +698,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,12 +885,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1049,27 +1048,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1427,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5A430-4559-424A-BE44-2D91DC40780D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,79 +1431,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1524,9 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1536,15 +1536,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1552,23 +1552,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>103</v>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1616,7 +1616,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1688,7 +1688,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1704,7 +1704,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1720,7 +1720,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1736,7 +1736,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1760,7 +1760,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1768,7 +1768,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1840,7 +1840,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1856,99 +1856,99 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1960,20 +1960,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B1" t="s">
@@ -1984,7 +1982,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1995,7 +1993,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -2006,7 +2004,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -2017,7 +2015,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -2028,7 +2026,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -2039,7 +2037,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -2050,7 +2048,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -2061,7 +2059,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -2072,7 +2070,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -2083,7 +2081,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B11">
@@ -2094,7 +2092,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B12">
@@ -2105,7 +2103,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B13">
@@ -2116,7 +2114,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B14">
@@ -2127,7 +2125,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B15">
@@ -2138,7 +2136,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B16">
@@ -2146,17 +2144,6 @@
       </c>
       <c r="C16">
         <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7">
-        <v>40</v>
-      </c>
-      <c r="C17" s="7">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2181,10 +2168,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0CEFB8-0929-4A12-BA7E-023ED528E481}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67346163-E340-4BD1-A433-B95BE6EE2059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Скребок</t>
   </si>
@@ -535,6 +535,21 @@
   </si>
   <si>
     <t>символы, которые обрезаются в начале и конце слов в описании при сравнении с паттернами типологии</t>
+  </si>
+  <si>
+    <t>mirr_y</t>
+  </si>
+  <si>
+    <t>mirr_x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Зеркальное отражение координат по вертикали</t>
+  </si>
+  <si>
+    <t>Зеркальное отражение координат по горизонтали</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D5A430-4559-424A-BE44-2D91DC40780D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,6 +1530,28 @@
       </c>
       <c r="C8" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/input/table_tipology.xlsx
+++ b/input/table_tipology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\st\raskopaem\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67346163-E340-4BD1-A433-B95BE6EE2059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3D988-0964-424D-B84F-0B328AA5957B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
